--- a/Assignments/Phylo.Proj/DATA_PROJECT/DATA_PROJECT.xlsx
+++ b/Assignments/Phylo.Proj/DATA_PROJECT/DATA_PROJECT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaigneMaker\Desktop\Spring 2020\BIOL Data Analysis\DATA_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaigneMaker\Desktop\Data_Course_RAIGNE\Assignments\Phylo.Proj\DATA_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22EA791-9EB2-4375-B2B5-CA5B6C58F889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6971A3-9708-4644-AE09-59F21B2538ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="10740" xr2:uid="{8F67C478-5E18-4EF6-AAA2-9725082B42D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15480" xr2:uid="{8F67C478-5E18-4EF6-AAA2-9725082B42D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="87">
   <si>
     <t>Oryza     Click on organism name to get more information.</t>
   </si>
@@ -222,6 +222,78 @@
   </si>
   <si>
     <t>Oryza sativa (japonica cultivar-group) cultivar Guangluai4</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_japonica_cultivar-Aiziluoartial</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_indica_cultivar-peiai64Se</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_indica_cultivar-Zhenshan_97Aquence</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_indica_cultivar-yuchi231-8</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_indica_cultivar-Minghui_63</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_indica_cultivar-nanjing11</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_indica_cultivar-R288</t>
+  </si>
+  <si>
+    <t>Microlaena_carseil</t>
+  </si>
+  <si>
+    <t>Microlaena_avenaceacer</t>
+  </si>
+  <si>
+    <t>Potamophila_parviflora</t>
+  </si>
+  <si>
+    <t>Microlaena_stipoides</t>
+  </si>
+  <si>
+    <t>Oryza_granulata</t>
+  </si>
+  <si>
+    <t>Melocalamus_compactiflorus</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_Japonica_cultivar_7001S</t>
+  </si>
+  <si>
+    <t>Oryza_sativa_japonica_cultivar-Nongken58S</t>
+  </si>
+  <si>
+    <t>Leersia oryzoides </t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Oryza granulata</t>
+  </si>
+  <si>
+    <t>Taxa</t>
+  </si>
+  <si>
+    <t>Drought Resistance Traits</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>•Tracking the evolution of drought tolerance in Oryza will show what species may be optimal for breeding new strains of high yielding and drought resistance rice cultivars.</t>
   </si>
 </sst>
 </file>
@@ -261,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -269,16 +341,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -594,15 +812,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86AABDC-8313-4958-AA86-A8E721652CBC}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1374,7 +1593,562 @@
         <v>33</v>
       </c>
     </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2"/>
+    </row>
+    <row r="123" spans="1:3" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2"/>
+    </row>
+    <row r="124" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="4"/>
+      <c r="C126" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="4"/>
+      <c r="C128" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="4"/>
+      <c r="C130" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="4"/>
+      <c r="C131" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="4"/>
+      <c r="C132" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="4"/>
+      <c r="C133" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B134" s="4"/>
+      <c r="C134" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B136" s="4"/>
+      <c r="C136" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="4"/>
+      <c r="C137" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138" s="4"/>
+      <c r="C138" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="4"/>
+      <c r="C139" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" s="4"/>
+      <c r="C140" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" s="4"/>
+      <c r="C141" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B142" s="4"/>
+      <c r="C142" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A65:M76">
+    <sortCondition descending="1" ref="A65"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{E6E0C2B3-B7ED-473C-AECF-76A1B9151334}"/>
   </hyperlinks>

--- a/Assignments/Phylo.Proj/DATA_PROJECT/DATA_PROJECT.xlsx
+++ b/Assignments/Phylo.Proj/DATA_PROJECT/DATA_PROJECT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RaigneMaker\Desktop\Data_Course_RAIGNE\Assignments\Phylo.Proj\DATA_PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6971A3-9708-4644-AE09-59F21B2538ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A33A4C-A87B-43DE-B760-D9D873F9BD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15480" xr2:uid="{8F67C478-5E18-4EF6-AAA2-9725082B42D6}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -818,13 +819,13 @@
       <selection activeCell="A145" sqref="A145"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -865,12 +866,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -878,7 +879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -886,7 +887,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -906,7 +907,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -914,7 +915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -928,7 +929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -948,12 +949,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -973,7 +974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -987,7 +988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1165,12 +1166,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1230,18 +1231,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1258,7 +1259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3" t="s">
         <v>60</v>
       </c>
@@ -1331,7 +1332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3" t="s">
         <v>62</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3" t="s">
         <v>58</v>
       </c>
@@ -1441,7 +1442,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3" t="s">
         <v>48</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3" t="s">
         <v>49</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3" t="s">
         <v>50</v>
       </c>
@@ -1483,7 +1484,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -1503,7 +1504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>41</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -1593,7 +1594,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -1601,7 +1602,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>41</v>
       </c>
@@ -1617,12 +1618,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -1638,17 +1639,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1656,7 +1657,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -1672,47 +1673,47 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -1720,27 +1721,27 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -1748,22 +1749,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -1771,22 +1772,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="2" t="s">
         <v>47</v>
       </c>
@@ -1794,173 +1795,173 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="2"/>
     </row>
-    <row r="123" spans="1:3" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A123" s="2"/>
     </row>
-    <row r="124" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5" t="s">
         <v>83</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="8" t="s">
         <v>11</v>
       </c>
@@ -1978,7 +1979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="8" t="s">
         <v>10</v>
       </c>
@@ -1987,7 +1988,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="8" t="s">
         <v>82</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="8" t="s">
         <v>9</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="8" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="8" t="s">
         <v>6</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="8" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="8" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="8" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2051,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="8" t="s">
         <v>2</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="8" t="s">
         <v>1</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="8" t="s">
         <v>12</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="8" t="s">
         <v>13</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="8" t="s">
         <v>14</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="8" t="s">
         <v>39</v>
       </c>
@@ -2104,7 +2105,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="8" t="s">
         <v>15</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="8" t="s">
         <v>16</v>
       </c>
@@ -2122,7 +2123,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="8" t="s">
         <v>17</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A143" s="10" t="s">
         <v>18</v>
       </c>
@@ -2140,7 +2141,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" t="s">
         <v>86</v>
       </c>
